--- a/RNN/Data/Optimised_Networks/offline_direct_prediction 1_15_15_0.001_8.xlsx
+++ b/RNN/Data/Optimised_Networks/offline_direct_prediction 1_15_15_0.001_8.xlsx
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2296366240969682</v>
+        <v>0.230346236239781</v>
       </c>
       <c r="C2" t="n">
-        <v>1688.332272280052</v>
+        <v>1691.931577947731</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4289813353375951</v>
+        <v>0.4298372661127325</v>
       </c>
       <c r="E2" t="n">
         <v>300</v>
@@ -408,13 +408,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4899368864271328</v>
+        <v>0.4922470174126298</v>
       </c>
       <c r="C3" t="n">
-        <v>1757.684461230669</v>
+        <v>1751.355479834785</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8555957168088945</v>
+        <v>0.8523555846572149</v>
       </c>
       <c r="E3" t="n">
         <v>300</v>
@@ -428,13 +428,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.747317210567223</v>
+        <v>0.7478062838057801</v>
       </c>
       <c r="C4" t="n">
-        <v>1596.257025430221</v>
+        <v>1579.651513978617</v>
       </c>
       <c r="D4" t="n">
-        <v>1.256420562893473</v>
+        <v>1.249526536691496</v>
       </c>
       <c r="E4" t="n">
         <v>300</v>
@@ -448,13 +448,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9406137615869612</v>
+        <v>0.9369353058662983</v>
       </c>
       <c r="C5" t="n">
-        <v>1649.623988406707</v>
+        <v>1630.110078135757</v>
       </c>
       <c r="D5" t="n">
-        <v>1.577307281574338</v>
+        <v>1.567081754161034</v>
       </c>
       <c r="E5" t="n">
         <v>300</v>
@@ -468,13 +468,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.12292212772104</v>
+        <v>1.115924184923715</v>
       </c>
       <c r="C6" t="n">
-        <v>2331.934973713565</v>
+        <v>2307.807821337446</v>
       </c>
       <c r="D6" t="n">
-        <v>1.847332903443379</v>
+        <v>1.834576743815217</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
@@ -488,13 +488,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.306629815235506</v>
+        <v>1.296955047848382</v>
       </c>
       <c r="C7" t="n">
-        <v>3533.105772318916</v>
+        <v>3496.743062119574</v>
       </c>
       <c r="D7" t="n">
-        <v>2.076273638774928</v>
+        <v>2.062199841944808</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
@@ -508,13 +508,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.484622174413988</v>
+        <v>1.473132389850385</v>
       </c>
       <c r="C8" t="n">
-        <v>5087.918175867839</v>
+        <v>5035.151566071041</v>
       </c>
       <c r="D8" t="n">
-        <v>2.28586540768282</v>
+        <v>2.272133548994971</v>
       </c>
       <c r="E8" t="n">
         <v>300</v>
@@ -528,13 +528,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.650026584935434</v>
+        <v>1.637851002016415</v>
       </c>
       <c r="C9" t="n">
-        <v>6824.177337986292</v>
+        <v>6758.358029605713</v>
       </c>
       <c r="D9" t="n">
-        <v>2.497308405999808</v>
+        <v>2.4851674000983</v>
       </c>
       <c r="E9" t="n">
         <v>300</v>
@@ -548,13 +548,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.803168598698278</v>
+        <v>1.790856367233369</v>
       </c>
       <c r="C10" t="n">
-        <v>8582.114829027489</v>
+        <v>8514.695977592146</v>
       </c>
       <c r="D10" t="n">
-        <v>2.719397508512337</v>
+        <v>2.708848968020368</v>
       </c>
       <c r="E10" t="n">
         <v>300</v>
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.93639175392087</v>
+        <v>1.923893271533395</v>
       </c>
       <c r="C11" t="n">
-        <v>10102.58292979485</v>
+        <v>10056.43842061519</v>
       </c>
       <c r="D11" t="n">
-        <v>2.922068891031335</v>
+        <v>2.911605323377188</v>
       </c>
       <c r="E11" t="n">
         <v>300</v>
@@ -588,13 +588,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.032021031659799</v>
+        <v>2.018266188059527</v>
       </c>
       <c r="C12" t="n">
-        <v>11098.81633964828</v>
+        <v>11094.60404429633</v>
       </c>
       <c r="D12" t="n">
-        <v>3.062431490270854</v>
+        <v>3.048131243929139</v>
       </c>
       <c r="E12" t="n">
         <v>300</v>
@@ -608,13 +608,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.087963219363705</v>
+        <v>2.071040716102027</v>
       </c>
       <c r="C13" t="n">
-        <v>11567.24250416186</v>
+        <v>11605.51327886733</v>
       </c>
       <c r="D13" t="n">
-        <v>3.138804580713164</v>
+        <v>3.116144495705063</v>
       </c>
       <c r="E13" t="n">
         <v>300</v>
@@ -628,13 +628,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1914129784210798</v>
+        <v>0.1931096042886719</v>
       </c>
       <c r="C14" t="n">
-        <v>271.1561520436535</v>
+        <v>267.3259082942245</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2496477117143172</v>
+        <v>0.2465013598040875</v>
       </c>
       <c r="E14" t="n">
         <v>150</v>
@@ -648,13 +648,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2732191076475944</v>
+        <v>0.276294145228591</v>
       </c>
       <c r="C15" t="n">
-        <v>41.13972448408458</v>
+        <v>44.74470465759214</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4934440870198986</v>
+        <v>0.4864472871009351</v>
       </c>
       <c r="E15" t="n">
         <v>150</v>
@@ -668,13 +668,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4015044062906933</v>
+        <v>0.4068031482336597</v>
       </c>
       <c r="C16" t="n">
-        <v>18.18038779175095</v>
+        <v>25.43955897922979</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6910032679244663</v>
+        <v>0.6844422484131921</v>
       </c>
       <c r="E16" t="n">
         <v>150</v>
@@ -688,13 +688,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5579482887996875</v>
+        <v>0.5636810612189603</v>
       </c>
       <c r="C17" t="n">
-        <v>-181.886474853331</v>
+        <v>-175.2567446485277</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9465182659012169</v>
+        <v>0.9412912579197729</v>
       </c>
       <c r="E17" t="n">
         <v>150</v>
@@ -708,13 +708,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7286685949353466</v>
+        <v>0.7338151222470025</v>
       </c>
       <c r="C18" t="n">
-        <v>-198.4207450300769</v>
+        <v>-194.5241238679296</v>
       </c>
       <c r="D18" t="n">
-        <v>1.258372395180633</v>
+        <v>1.254673099584871</v>
       </c>
       <c r="E18" t="n">
         <v>150</v>
@@ -728,13 +728,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8953108383813464</v>
+        <v>0.8995736418509556</v>
       </c>
       <c r="C19" t="n">
-        <v>-86.64003757388627</v>
+        <v>-83.29331894296729</v>
       </c>
       <c r="D19" t="n">
-        <v>1.564308701262508</v>
+        <v>1.560764302776859</v>
       </c>
       <c r="E19" t="n">
         <v>150</v>
@@ -748,13 +748,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.05830600996796</v>
+        <v>1.061753200899637</v>
       </c>
       <c r="C20" t="n">
-        <v>119.2207339468819</v>
+        <v>126.053029704291</v>
       </c>
       <c r="D20" t="n">
-        <v>1.851981599935882</v>
+        <v>1.847937513095265</v>
       </c>
       <c r="E20" t="n">
         <v>150</v>
@@ -768,13 +768,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.217732017565498</v>
+        <v>1.220579701239667</v>
       </c>
       <c r="C21" t="n">
-        <v>402.7055026290859</v>
+        <v>416.9487983685831</v>
       </c>
       <c r="D21" t="n">
-        <v>2.102283142168461</v>
+        <v>2.097489030480138</v>
       </c>
       <c r="E21" t="n">
         <v>150</v>
@@ -788,13 +788,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.368828504434186</v>
+        <v>1.371198131166569</v>
       </c>
       <c r="C22" t="n">
-        <v>716.3708219924497</v>
+        <v>739.0791452504798</v>
       </c>
       <c r="D22" t="n">
-        <v>2.29892349999311</v>
+        <v>2.293530763965929</v>
       </c>
       <c r="E22" t="n">
         <v>150</v>
@@ -808,13 +808,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.50116021085443</v>
+        <v>1.503059815378173</v>
       </c>
       <c r="C23" t="n">
-        <v>1021.245425813669</v>
+        <v>1050.148974258764</v>
       </c>
       <c r="D23" t="n">
-        <v>2.433389356431624</v>
+        <v>2.427924052360464</v>
       </c>
       <c r="E23" t="n">
         <v>150</v>
@@ -828,13 +828,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.603055263912653</v>
+        <v>1.60464668317804</v>
       </c>
       <c r="C24" t="n">
-        <v>1293.161259973982</v>
+        <v>1324.431983363167</v>
       </c>
       <c r="D24" t="n">
-        <v>2.508637456120351</v>
+        <v>2.504087005595081</v>
       </c>
       <c r="E24" t="n">
         <v>150</v>
@@ -848,13 +848,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.66960136328901</v>
+        <v>1.671428093751159</v>
       </c>
       <c r="C25" t="n">
-        <v>1529.618394703859</v>
+        <v>1560.134361132909</v>
       </c>
       <c r="D25" t="n">
-        <v>2.538792703640041</v>
+        <v>2.536484109481969</v>
       </c>
       <c r="E25" t="n">
         <v>150</v>
